--- a/LN-PDF/LN-Index/LN_index_gesamt_zuordnung_2025-08-03.xlsx
+++ b/LN-PDF/LN-Index/LN_index_gesamt_zuordnung_2025-08-03.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ugroh/GitHub/AGFA-LN-POS/LN-PDF/LN-Index/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A108A7-8D8F-5944-BBB4-A0D20C821872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27140" windowHeight="16640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Abgabe" sheetId="1" r:id="rId1"/>
+    <sheet name="Abgabe" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -27,199 +22,217 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="61">
   <si>
-    <t>Kap</t>
-  </si>
-  <si>
-    <t>Sec</t>
-  </si>
-  <si>
-    <t>alt</t>
-  </si>
-  <si>
-    <t>neu</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>S3</t>
-  </si>
-  <si>
-    <t>N1</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>N2</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>S4</t>
-  </si>
-  <si>
-    <t>S5</t>
-  </si>
-  <si>
-    <t>S6</t>
-  </si>
-  <si>
-    <t>S7</t>
-  </si>
-  <si>
-    <t>N3</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>N4</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>N5</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>N6</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>N7</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>N8</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>S8</t>
-  </si>
-  <si>
-    <t>S9</t>
-  </si>
-  <si>
-    <t>N9</t>
-  </si>
-  <si>
-    <t>R9</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>N10</t>
-  </si>
-  <si>
-    <t>R10</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>N11</t>
-  </si>
-  <si>
-    <t>R11</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>N12</t>
-  </si>
-  <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>N13</t>
-  </si>
-  <si>
-    <t>R13</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>N14</t>
-  </si>
-  <si>
-    <t>R14</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>N15</t>
-  </si>
-  <si>
-    <t>R15</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>N16</t>
-  </si>
-  <si>
-    <t>R16</t>
+    <t xml:space="preserve">Kap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -231,7 +244,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -239,3959 +252,3845 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="0E2841"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="156082"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="E97132"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="196B24"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="A02B93"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="4EA72E"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="467886"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="96607D"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A2:E449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A409" zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
-      <selection activeCell="D423" sqref="D423:F436"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="5.1640625" customWidth="1"/>
-    <col min="3" max="4" width="7.33203125" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" customWidth="1"/>
-    <col min="1023" max="1024" width="11.5" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="5.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="7.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    <row r="4" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D5">
+    <row r="5" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D5" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D6">
+    <row r="6" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D6" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D7">
+    <row r="7" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D7" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D8">
+    <row r="8" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D8" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D9">
+    <row r="9" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D9" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
+    <row r="10" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D11">
+    <row r="11" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D11" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="0" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D12">
+    <row r="12" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D12" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="0" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D13">
+    <row r="13" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D13" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="0" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D14">
+    <row r="14" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D14" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="0" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D15">
+    <row r="15" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D15" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="0" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
+    <row r="16" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="0" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D17">
+    <row r="17" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D17" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="0" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D18">
+    <row r="18" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D18" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="0" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D19">
+    <row r="19" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D19" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="0" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D20">
+    <row r="20" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D20" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="0" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D21">
+    <row r="21" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D21" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="0" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D22">
+    <row r="22" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D22" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="0" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D23">
+    <row r="23" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D23" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="0" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D24">
+    <row r="24" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D24" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="0" t="n">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D25">
+    <row r="25" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D25" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="0" t="n">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D26">
+    <row r="26" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D26" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="0" t="n">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
+    <row r="27" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="0" t="n">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
+    <row r="28" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
+    <row r="29" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="0" t="n">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
+    <row r="30" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="0" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D31">
+    <row r="31" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D31" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="0" t="n">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D32">
+    <row r="32" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D32" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="0" t="n">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="4:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D33">
+    <row r="33" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D33" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="0" t="n">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="4:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D34">
+    <row r="34" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D34" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="0" t="n">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="4:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D35">
+    <row r="35" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D35" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="0" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="4:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D36">
+    <row r="36" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D36" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="0" t="n">
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="4:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D37">
+    <row r="37" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D37" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="0" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="4:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D38">
+    <row r="38" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D38" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="0" t="n">
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="4:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D39">
+    <row r="39" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D39" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="0" t="n">
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="4:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D40">
+    <row r="40" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D40" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="0" t="n">
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="4:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D41">
+    <row r="41" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D41" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="0" t="n">
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="4:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D42">
+    <row r="42" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D42" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="0" t="n">
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="4:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D43">
+    <row r="43" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D43" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="0" t="n">
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="4:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D44">
+    <row r="44" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D44" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="0" t="n">
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="4:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D45">
+    <row r="45" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D45" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="0" t="n">
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="4:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D46">
+    <row r="46" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D46" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="0" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="4:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D47">
+    <row r="47" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D47" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="0" t="n">
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="4:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D48">
+    <row r="48" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D48" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="0" t="n">
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D49">
+    <row r="49" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D49" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="0" t="n">
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D50">
+    <row r="50" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D50" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="0" t="n">
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" t="s">
+    <row r="51" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B51" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="0" t="n">
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D52">
+    <row r="52" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D52" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="0" t="n">
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D53">
+    <row r="53" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D53" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="0" t="n">
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D54">
+    <row r="54" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D54" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="0" t="n">
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D55">
+    <row r="55" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D55" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="0" t="n">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D56">
+    <row r="56" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D56" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="0" t="n">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D57">
+    <row r="57" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D57" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="0" t="n">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" t="s">
+    <row r="58" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B58" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="0" t="n">
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D59">
+    <row r="59" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D59" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="0" t="n">
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D60">
+    <row r="60" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D60" s="0" t="n">
         <v>56</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="0" t="n">
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D61">
+    <row r="61" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D61" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="0" t="n">
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" t="s">
+    <row r="62" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B62" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="0" t="n">
         <v>58</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="0" t="n">
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D63">
+    <row r="63" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D63" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="0" t="n">
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" t="s">
+    <row r="64" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B64" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" t="s">
+    <row r="65" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="0" t="n">
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D66">
+    <row r="66" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D66" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="0" t="n">
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D67">
+    <row r="67" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D67" s="0" t="n">
         <v>62</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="0" t="n">
         <v>74</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" t="s">
+    <row r="68" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B68" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="0" t="n">
         <v>63</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="0" t="n">
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D69">
+    <row r="69" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D69" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="0" t="n">
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D70">
+    <row r="70" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D70" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="0" t="n">
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D71">
+    <row r="71" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D71" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="0" t="n">
         <v>77</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D72">
+    <row r="72" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D72" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="0" t="n">
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" t="s">
+    <row r="73" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B73" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="0" t="n">
         <v>68</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="0" t="n">
         <v>79</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D74">
+    <row r="74" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D74" s="0" t="n">
         <v>69</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="0" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D75">
+    <row r="75" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D75" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="0" t="n">
         <v>81</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D76">
+    <row r="76" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D76" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="0" t="n">
         <v>82</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D77">
+    <row r="77" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D77" s="0" t="n">
         <v>72</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="0" t="n">
         <v>83</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D78">
+    <row r="78" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D78" s="0" t="n">
         <v>73</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="0" t="n">
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" t="s">
+    <row r="79" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B79" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="0" t="n">
         <v>85</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D80">
+    <row r="80" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D80" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="0" t="n">
         <v>86</v>
       </c>
     </row>
-    <row r="81" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D81">
+    <row r="81" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D81" s="0" t="n">
         <v>76</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="0" t="n">
         <v>87</v>
       </c>
     </row>
-    <row r="82" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D82">
+    <row r="82" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D82" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="0" t="n">
         <v>88</v>
       </c>
     </row>
-    <row r="83" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D83">
+    <row r="83" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D83" s="0" t="n">
         <v>78</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="0" t="n">
         <v>89</v>
       </c>
     </row>
-    <row r="84" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" t="s">
+    <row r="84" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B84" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="0" t="n">
         <v>79</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="0" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D85">
+    <row r="85" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D85" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="0" t="n">
         <v>91</v>
       </c>
     </row>
-    <row r="86" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D86">
+    <row r="86" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D86" s="0" t="n">
         <v>81</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="0" t="n">
         <v>92</v>
       </c>
     </row>
-    <row r="87" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" t="s">
+    <row r="87" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B87" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="0" t="n">
         <v>82</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="0" t="n">
         <v>93</v>
       </c>
     </row>
-    <row r="88" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D88">
+    <row r="88" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D88" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="0" t="n">
         <v>94</v>
       </c>
     </row>
-    <row r="89" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D89">
+    <row r="89" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D89" s="0" t="n">
         <v>84</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="0" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="90" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D90">
+    <row r="90" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D90" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="0" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="91" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D91">
+    <row r="91" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D91" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="0" t="n">
         <v>96</v>
       </c>
     </row>
-    <row r="92" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D92">
+    <row r="92" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D92" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="0" t="n">
         <v>97</v>
       </c>
     </row>
-    <row r="93" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D93">
+    <row r="93" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D93" s="0" t="n">
         <v>88</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="0" t="n">
         <v>98</v>
       </c>
     </row>
-    <row r="94" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B94" t="s">
+    <row r="94" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B94" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="0" t="n">
         <v>89</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="0" t="n">
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D95">
+    <row r="95" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D95" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="0" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D96">
+    <row r="96" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D96" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="0" t="n">
         <v>101</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D97">
+    <row r="97" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D97" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="0" t="n">
         <v>102</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D98">
+    <row r="98" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D98" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="0" t="n">
         <v>104</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D99">
+    <row r="99" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D99" s="0" t="n">
         <v>94</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="0" t="n">
         <v>105</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D100">
+    <row r="100" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D100" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="0" t="n">
         <v>106</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B101" t="s">
+    <row r="101" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B101" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="0" t="n">
         <v>107</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D102">
+    <row r="102" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D102" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="0" t="n">
         <v>108</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B103" t="s">
+    <row r="103" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B103" s="0" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" t="s">
+    <row r="104" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="0" t="n">
         <v>111</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D105">
+    <row r="105" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D105" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="0" t="n">
         <v>112</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D106">
+    <row r="106" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D106" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="0" t="n">
         <v>113</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D107">
+    <row r="107" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D107" s="0" t="n">
         <v>101</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="0" t="n">
         <v>114</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D108">
+    <row r="108" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D108" s="0" t="n">
         <v>102</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="0" t="n">
         <v>115</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D109">
+    <row r="109" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D109" s="0" t="n">
         <v>103</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="0" t="n">
         <v>116</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D110">
+    <row r="110" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D110" s="0" t="n">
         <v>104</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="0" t="n">
         <v>117</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D111">
+    <row r="111" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D111" s="0" t="n">
         <v>105</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="0" t="n">
         <v>119</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D112">
+    <row r="112" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D112" s="0" t="n">
         <v>106</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="0" t="n">
         <v>120</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D113">
+    <row r="113" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D113" s="0" t="n">
         <v>107</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="0" t="n">
         <v>121</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D114">
+    <row r="114" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D114" s="0" t="n">
         <v>108</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="0" t="n">
         <v>122</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D115">
+    <row r="115" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D115" s="0" t="n">
         <v>109</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="0" t="n">
         <v>123</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D116">
+    <row r="116" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D116" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="0" t="n">
         <v>124</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D117">
+    <row r="117" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D117" s="0" t="n">
         <v>111</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="0" t="n">
         <v>125</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B118" t="s">
+    <row r="118" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B118" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="0" t="n">
         <v>112</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="0" t="n">
         <v>126</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D119">
+    <row r="119" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D119" s="0" t="n">
         <v>113</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="0" t="n">
         <v>127</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D120">
+    <row r="120" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D120" s="0" t="n">
         <v>114</v>
       </c>
-      <c r="E120">
+      <c r="E120" s="0" t="n">
         <v>128</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B121" t="s">
+    <row r="121" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B121" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="0" t="n">
         <v>115</v>
       </c>
-      <c r="E121">
+      <c r="E121" s="0" t="n">
         <v>129</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D122">
+    <row r="122" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D122" s="0" t="n">
         <v>116</v>
       </c>
-      <c r="E122">
+      <c r="E122" s="0" t="n">
         <v>130</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B123" t="s">
+    <row r="123" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B123" s="0" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" t="s">
+    <row r="124" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="0" t="n">
         <v>117</v>
       </c>
-      <c r="E124">
+      <c r="E124" s="0" t="n">
         <v>137</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B125" t="s">
+    <row r="125" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B125" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="0" t="n">
         <v>118</v>
       </c>
-      <c r="E125">
+      <c r="E125" s="0" t="n">
         <v>138</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D126">
+    <row r="126" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D126" s="0" t="n">
         <v>119</v>
       </c>
-      <c r="E126">
+      <c r="E126" s="0" t="n">
         <v>138</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B127" t="s">
+    <row r="127" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B127" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="E127">
+      <c r="E127" s="0" t="n">
         <v>139</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D128">
+    <row r="128" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D128" s="0" t="n">
         <v>121</v>
       </c>
-      <c r="E128">
+      <c r="E128" s="0" t="n">
         <v>140</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B129" t="s">
+    <row r="129" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B129" s="0" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B130" t="s">
+    <row r="130" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B130" s="0" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" t="s">
+    <row r="131" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="132" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="0" t="n">
         <v>122</v>
       </c>
-      <c r="E132">
+      <c r="E132" s="0" t="n">
         <v>144</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B133" t="s">
+    <row r="133" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B133" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="0" t="n">
         <v>123</v>
       </c>
-      <c r="E133">
+      <c r="E133" s="0" t="n">
         <v>145</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D134">
+    <row r="134" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D134" s="0" t="n">
         <v>124</v>
       </c>
-      <c r="E134">
+      <c r="E134" s="0" t="n">
         <v>146</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D135">
+    <row r="135" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D135" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="E135">
+      <c r="E135" s="0" t="n">
         <v>147</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D136">
+    <row r="136" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D136" s="0" t="n">
         <v>126</v>
       </c>
-      <c r="E136">
+      <c r="E136" s="0" t="n">
         <v>147</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D137">
+    <row r="137" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D137" s="0" t="n">
         <v>127</v>
       </c>
-      <c r="E137">
+      <c r="E137" s="0" t="n">
         <v>148</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D138">
+    <row r="138" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D138" s="0" t="n">
         <v>128</v>
       </c>
-      <c r="E138">
+      <c r="E138" s="0" t="n">
         <v>149</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D139">
+    <row r="139" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D139" s="0" t="n">
         <v>129</v>
       </c>
-      <c r="E139">
+      <c r="E139" s="0" t="n">
         <v>149</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D140">
+    <row r="140" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D140" s="0" t="n">
         <v>130</v>
       </c>
-      <c r="E140">
+      <c r="E140" s="0" t="n">
         <v>150</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D141">
+    <row r="141" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D141" s="0" t="n">
         <v>131</v>
       </c>
-      <c r="E141">
+      <c r="E141" s="0" t="n">
         <v>151</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D142">
+    <row r="142" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D142" s="0" t="n">
         <v>132</v>
       </c>
-      <c r="E142">
+      <c r="E142" s="0" t="n">
         <v>151</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D143">
+    <row r="143" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D143" s="0" t="n">
         <v>133</v>
       </c>
-      <c r="E143">
+      <c r="E143" s="0" t="n">
         <v>152</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D144">
+    <row r="144" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D144" s="0" t="n">
         <v>134</v>
       </c>
-      <c r="E144">
+      <c r="E144" s="0" t="n">
         <v>153</v>
       </c>
     </row>
-    <row r="145" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B145" t="s">
+    <row r="145" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B145" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="0" t="n">
         <v>135</v>
       </c>
-      <c r="E145">
+      <c r="E145" s="0" t="n">
         <v>154</v>
       </c>
     </row>
-    <row r="146" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D146">
+    <row r="146" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D146" s="0" t="n">
         <v>136</v>
       </c>
-      <c r="E146">
+      <c r="E146" s="0" t="n">
         <v>155</v>
       </c>
     </row>
-    <row r="147" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D147">
+    <row r="147" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D147" s="0" t="n">
         <v>137</v>
       </c>
-      <c r="E147">
+      <c r="E147" s="0" t="n">
         <v>156</v>
       </c>
     </row>
-    <row r="148" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D148">
+    <row r="148" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D148" s="0" t="n">
         <v>138</v>
       </c>
-      <c r="E148">
+      <c r="E148" s="0" t="n">
         <v>157</v>
       </c>
     </row>
-    <row r="149" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D149">
+    <row r="149" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D149" s="0" t="n">
         <v>139</v>
       </c>
-      <c r="E149">
+      <c r="E149" s="0" t="n">
         <v>158</v>
       </c>
     </row>
-    <row r="150" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D150">
+    <row r="150" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D150" s="0" t="n">
         <v>140</v>
       </c>
-      <c r="E150">
+      <c r="E150" s="0" t="n">
         <v>159</v>
       </c>
     </row>
-    <row r="151" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D151">
+    <row r="151" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D151" s="0" t="n">
         <v>141</v>
       </c>
-      <c r="E151">
+      <c r="E151" s="0" t="n">
         <v>160</v>
       </c>
     </row>
-    <row r="152" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D152">
+    <row r="152" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D152" s="0" t="n">
         <v>142</v>
       </c>
-      <c r="E152">
+      <c r="E152" s="0" t="n">
         <v>161</v>
       </c>
     </row>
-    <row r="153" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B153" t="s">
+    <row r="153" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B153" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D153">
+      <c r="D153" s="0" t="n">
         <v>143</v>
       </c>
-      <c r="E153">
+      <c r="E153" s="0" t="n">
         <v>162</v>
       </c>
     </row>
-    <row r="154" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D154">
+    <row r="154" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D154" s="0" t="n">
         <v>144</v>
       </c>
-      <c r="E154">
+      <c r="E154" s="0" t="n">
         <v>163</v>
       </c>
     </row>
-    <row r="155" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D155">
+    <row r="155" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D155" s="0" t="n">
         <v>145</v>
       </c>
-      <c r="E155">
+      <c r="E155" s="0" t="n">
         <v>164</v>
       </c>
     </row>
-    <row r="156" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D156">
+    <row r="156" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D156" s="0" t="n">
         <v>146</v>
       </c>
-      <c r="E156">
+      <c r="E156" s="0" t="n">
         <v>165</v>
       </c>
     </row>
-    <row r="157" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D157">
+    <row r="157" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D157" s="0" t="n">
         <v>147</v>
       </c>
-      <c r="E157">
+      <c r="E157" s="0" t="n">
         <v>166</v>
       </c>
     </row>
-    <row r="158" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D158">
+    <row r="158" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D158" s="0" t="n">
         <v>148</v>
       </c>
-      <c r="E158">
+      <c r="E158" s="0" t="n">
         <v>166</v>
       </c>
     </row>
-    <row r="159" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D159">
+    <row r="159" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D159" s="0" t="n">
         <v>149</v>
       </c>
-      <c r="E159">
+      <c r="E159" s="0" t="n">
         <v>167</v>
       </c>
     </row>
-    <row r="160" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D160">
+    <row r="160" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D160" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="E160">
+      <c r="E160" s="0" t="n">
         <v>168</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D161">
+    <row r="161" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D161" s="0" t="n">
         <v>151</v>
       </c>
-      <c r="E161">
+      <c r="E161" s="0" t="n">
         <v>169</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D162">
+    <row r="162" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D162" s="0" t="n">
         <v>152</v>
       </c>
-      <c r="E162">
+      <c r="E162" s="0" t="n">
         <v>170</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D163">
+    <row r="163" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D163" s="0" t="n">
         <v>153</v>
       </c>
-      <c r="E163">
+      <c r="E163" s="0" t="n">
         <v>170</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D164">
+    <row r="164" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D164" s="0" t="n">
         <v>154</v>
       </c>
-      <c r="E164">
+      <c r="E164" s="0" t="n">
         <v>171</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D165">
+    <row r="165" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D165" s="0" t="n">
         <v>155</v>
       </c>
-      <c r="E165">
+      <c r="E165" s="0" t="n">
         <v>172</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D166">
+    <row r="166" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D166" s="0" t="n">
         <v>156</v>
       </c>
-      <c r="E166">
+      <c r="E166" s="0" t="n">
         <v>173</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D167">
+    <row r="167" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D167" s="0" t="n">
         <v>157</v>
       </c>
-      <c r="E167">
+      <c r="E167" s="0" t="n">
         <v>173</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D168">
+    <row r="168" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D168" s="0" t="n">
         <v>158</v>
       </c>
-      <c r="E168">
+      <c r="E168" s="0" t="n">
         <v>174</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D169">
+    <row r="169" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D169" s="0" t="n">
         <v>159</v>
       </c>
-      <c r="E169">
+      <c r="E169" s="0" t="n">
         <v>175</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D170">
+    <row r="170" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D170" s="0" t="n">
         <v>160</v>
       </c>
-      <c r="E170">
+      <c r="E170" s="0" t="n">
         <v>176</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D171">
+    <row r="171" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D171" s="0" t="n">
         <v>161</v>
       </c>
-      <c r="E171">
+      <c r="E171" s="0" t="n">
         <v>177</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B172" t="s">
+    <row r="172" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B172" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D172">
+      <c r="D172" s="0" t="n">
         <v>162</v>
       </c>
-      <c r="E172">
+      <c r="E172" s="0" t="n">
         <v>178</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B173" t="s">
+    <row r="173" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B173" s="0" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A174" t="s">
+    <row r="174" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="D174">
+      <c r="D174" s="0" t="n">
         <v>163</v>
       </c>
-      <c r="E174">
+      <c r="E174" s="0" t="n">
         <v>185</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D175">
+    <row r="175" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D175" s="0" t="n">
         <v>164</v>
       </c>
-      <c r="E175">
+      <c r="E175" s="0" t="n">
         <v>186</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D176">
+    <row r="176" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D176" s="0" t="n">
         <v>165</v>
       </c>
-      <c r="E176">
+      <c r="E176" s="0" t="n">
         <v>187</v>
       </c>
     </row>
-    <row r="177" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D177">
+    <row r="177" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D177" s="0" t="n">
         <v>166</v>
       </c>
-      <c r="E177">
+      <c r="E177" s="0" t="n">
         <v>187</v>
       </c>
     </row>
-    <row r="178" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D178">
+    <row r="178" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D178" s="0" t="n">
         <v>167</v>
       </c>
-      <c r="E178">
+      <c r="E178" s="0" t="n">
         <v>188</v>
       </c>
     </row>
-    <row r="179" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D179">
+    <row r="179" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D179" s="0" t="n">
         <v>168</v>
       </c>
-      <c r="E179">
+      <c r="E179" s="0" t="n">
         <v>189</v>
       </c>
     </row>
-    <row r="180" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B180" t="s">
+    <row r="180" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B180" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D180">
+      <c r="D180" s="0" t="n">
         <v>169</v>
       </c>
-      <c r="E180">
+      <c r="E180" s="0" t="n">
         <v>190</v>
       </c>
     </row>
-    <row r="181" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D181">
+    <row r="181" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D181" s="0" t="n">
         <v>170</v>
       </c>
-      <c r="E181">
+      <c r="E181" s="0" t="n">
         <v>191</v>
       </c>
     </row>
-    <row r="182" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D182">
+    <row r="182" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D182" s="0" t="n">
         <v>171</v>
       </c>
-      <c r="E182">
+      <c r="E182" s="0" t="n">
         <v>192</v>
       </c>
     </row>
-    <row r="183" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D183">
+    <row r="183" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D183" s="0" t="n">
         <v>172</v>
       </c>
-      <c r="E183">
+      <c r="E183" s="0" t="n">
         <v>193</v>
       </c>
     </row>
-    <row r="184" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D184">
+    <row r="184" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D184" s="0" t="n">
         <v>173</v>
       </c>
-      <c r="E184">
+      <c r="E184" s="0" t="n">
         <v>193</v>
       </c>
     </row>
-    <row r="185" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D185">
+    <row r="185" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D185" s="0" t="n">
         <v>174</v>
       </c>
-      <c r="E185">
+      <c r="E185" s="0" t="n">
         <v>194</v>
       </c>
     </row>
-    <row r="186" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D186">
+    <row r="186" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D186" s="0" t="n">
         <v>175</v>
       </c>
-      <c r="E186">
+      <c r="E186" s="0" t="n">
         <v>195</v>
       </c>
     </row>
-    <row r="187" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D187">
+    <row r="187" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D187" s="0" t="n">
         <v>176</v>
       </c>
-      <c r="E187">
+      <c r="E187" s="0" t="n">
         <v>196</v>
       </c>
     </row>
-    <row r="188" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D188">
+    <row r="188" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D188" s="0" t="n">
         <v>177</v>
       </c>
-      <c r="E188">
+      <c r="E188" s="0" t="n">
         <v>196</v>
       </c>
     </row>
-    <row r="189" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D189">
+    <row r="189" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D189" s="0" t="n">
         <v>178</v>
       </c>
-      <c r="E189">
+      <c r="E189" s="0" t="n">
         <v>197</v>
       </c>
     </row>
-    <row r="190" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D190">
+    <row r="190" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D190" s="0" t="n">
         <v>179</v>
       </c>
-      <c r="E190">
+      <c r="E190" s="0" t="n">
         <v>198</v>
       </c>
     </row>
-    <row r="191" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D191">
+    <row r="191" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D191" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="E191">
+      <c r="E191" s="0" t="n">
         <v>199</v>
       </c>
     </row>
-    <row r="192" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D192">
+    <row r="192" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D192" s="0" t="n">
         <v>181</v>
       </c>
-      <c r="E192">
+      <c r="E192" s="0" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="193" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B193" t="s">
+    <row r="193" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B193" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D193">
+      <c r="D193" s="0" t="n">
         <v>182</v>
       </c>
-      <c r="E193">
+      <c r="E193" s="0" t="n">
         <v>201</v>
       </c>
     </row>
-    <row r="194" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D194">
+    <row r="194" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D194" s="0" t="n">
         <v>183</v>
       </c>
-      <c r="E194">
+      <c r="E194" s="0" t="n">
         <v>202</v>
       </c>
     </row>
-    <row r="195" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D195">
+    <row r="195" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D195" s="0" t="n">
         <v>184</v>
       </c>
-      <c r="E195">
+      <c r="E195" s="0" t="n">
         <v>203</v>
       </c>
     </row>
-    <row r="196" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D196">
+    <row r="196" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D196" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="E196">
+      <c r="E196" s="0" t="n">
         <v>204</v>
       </c>
     </row>
-    <row r="197" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D197">
+    <row r="197" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D197" s="0" t="n">
         <v>186</v>
       </c>
-      <c r="E197">
+      <c r="E197" s="0" t="n">
         <v>205</v>
       </c>
     </row>
-    <row r="198" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D198">
+    <row r="198" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D198" s="0" t="n">
         <v>187</v>
       </c>
-      <c r="E198">
+      <c r="E198" s="0" t="n">
         <v>205</v>
       </c>
     </row>
-    <row r="199" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D199">
+    <row r="199" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D199" s="0" t="n">
         <v>188</v>
       </c>
-      <c r="E199">
+      <c r="E199" s="0" t="n">
         <v>206</v>
       </c>
     </row>
-    <row r="200" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D200">
+    <row r="200" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D200" s="0" t="n">
         <v>189</v>
       </c>
-      <c r="E200">
+      <c r="E200" s="0" t="n">
         <v>207</v>
       </c>
     </row>
-    <row r="201" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D201">
+    <row r="201" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D201" s="0" t="n">
         <v>190</v>
       </c>
-      <c r="E201">
+      <c r="E201" s="0" t="n">
         <v>208</v>
       </c>
     </row>
-    <row r="202" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D202">
+    <row r="202" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D202" s="0" t="n">
         <v>191</v>
       </c>
-      <c r="E202">
+      <c r="E202" s="0" t="n">
         <v>209</v>
       </c>
     </row>
-    <row r="203" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B203" t="s">
+    <row r="203" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B203" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D203">
+      <c r="D203" s="0" t="n">
         <v>192</v>
       </c>
-      <c r="E203">
+      <c r="E203" s="0" t="n">
         <v>210</v>
       </c>
     </row>
-    <row r="204" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D204">
+    <row r="204" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D204" s="0" t="n">
         <v>193</v>
       </c>
-      <c r="E204">
+      <c r="E204" s="0" t="n">
         <v>211</v>
       </c>
     </row>
-    <row r="205" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D205">
+    <row r="205" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D205" s="0" t="n">
         <v>194</v>
       </c>
-      <c r="E205">
+      <c r="E205" s="0" t="n">
         <v>212</v>
       </c>
     </row>
-    <row r="206" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D206">
+    <row r="206" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D206" s="0" t="n">
         <v>195</v>
       </c>
-      <c r="E206">
+      <c r="E206" s="0" t="n">
         <v>213</v>
       </c>
     </row>
-    <row r="207" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D207">
+    <row r="207" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D207" s="0" t="n">
         <v>196</v>
       </c>
-      <c r="E207">
+      <c r="E207" s="0" t="n">
         <v>213</v>
       </c>
     </row>
-    <row r="208" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D208">
+    <row r="208" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D208" s="0" t="n">
         <v>197</v>
       </c>
-      <c r="E208">
+      <c r="E208" s="0" t="n">
         <v>214</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D209">
+    <row r="209" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D209" s="0" t="n">
         <v>198</v>
       </c>
-      <c r="E209">
+      <c r="E209" s="0" t="n">
         <v>215</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D210">
+    <row r="210" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D210" s="0" t="n">
         <v>199</v>
       </c>
-      <c r="E210">
+      <c r="E210" s="0" t="n">
         <v>216</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D211">
+    <row r="211" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D211" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="E211">
+      <c r="E211" s="0" t="n">
         <v>217</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D212">
+    <row r="212" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D212" s="0" t="n">
         <v>201</v>
       </c>
-      <c r="E212">
+      <c r="E212" s="0" t="n">
         <v>218</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B213" t="s">
+    <row r="213" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B213" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D213">
+      <c r="D213" s="0" t="n">
         <v>202</v>
       </c>
-      <c r="E213">
+      <c r="E213" s="0" t="n">
         <v>219</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D214">
+    <row r="214" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D214" s="0" t="n">
         <v>203</v>
       </c>
-      <c r="E214">
+      <c r="E214" s="0" t="n">
         <v>220</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B215" t="s">
+    <row r="215" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B215" s="0" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A216" t="s">
+    <row r="216" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="D216">
+      <c r="D216" s="0" t="n">
         <v>204</v>
       </c>
-      <c r="E216">
+      <c r="E216" s="0" t="n">
         <v>227</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D217">
+    <row r="217" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D217" s="0" t="n">
         <v>205</v>
       </c>
-      <c r="E217">
+      <c r="E217" s="0" t="n">
         <v>228</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D218">
+    <row r="218" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D218" s="0" t="n">
         <v>206</v>
       </c>
-      <c r="E218">
+      <c r="E218" s="0" t="n">
         <v>229</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D219">
+    <row r="219" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D219" s="0" t="n">
         <v>207</v>
       </c>
-      <c r="E219">
+      <c r="E219" s="0" t="n">
         <v>230</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D220">
+    <row r="220" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D220" s="0" t="n">
         <v>208</v>
       </c>
-      <c r="E220">
+      <c r="E220" s="0" t="n">
         <v>231</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B221" t="s">
+    <row r="221" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B221" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D221">
+      <c r="D221" s="0" t="n">
         <v>209</v>
       </c>
-      <c r="E221">
+      <c r="E221" s="0" t="n">
         <v>232</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D222">
+    <row r="222" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D222" s="0" t="n">
         <v>210</v>
       </c>
-      <c r="E222">
+      <c r="E222" s="0" t="n">
         <v>233</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D223">
+    <row r="223" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D223" s="0" t="n">
         <v>211</v>
       </c>
-      <c r="E223">
+      <c r="E223" s="0" t="n">
         <v>234</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D224">
+    <row r="224" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D224" s="0" t="n">
         <v>212</v>
       </c>
-      <c r="E224">
+      <c r="E224" s="0" t="n">
         <v>235</v>
       </c>
     </row>
-    <row r="225" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D225">
+    <row r="225" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D225" s="0" t="n">
         <v>213</v>
       </c>
-      <c r="E225">
+      <c r="E225" s="0" t="n">
         <v>236</v>
       </c>
     </row>
-    <row r="226" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D226">
+    <row r="226" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D226" s="0" t="n">
         <v>214</v>
       </c>
-      <c r="E226">
+      <c r="E226" s="0" t="n">
         <v>236</v>
       </c>
     </row>
-    <row r="227" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D227">
+    <row r="227" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D227" s="0" t="n">
         <v>215</v>
       </c>
-      <c r="E227">
+      <c r="E227" s="0" t="n">
         <v>237</v>
       </c>
     </row>
-    <row r="228" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D228">
+    <row r="228" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D228" s="0" t="n">
         <v>216</v>
       </c>
-      <c r="E228">
+      <c r="E228" s="0" t="n">
         <v>238</v>
       </c>
     </row>
-    <row r="229" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D229">
+    <row r="229" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D229" s="0" t="n">
         <v>217</v>
       </c>
-      <c r="E229">
+      <c r="E229" s="0" t="n">
         <v>239</v>
       </c>
     </row>
-    <row r="230" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D230">
+    <row r="230" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D230" s="0" t="n">
         <v>218</v>
       </c>
-      <c r="E230">
+      <c r="E230" s="0" t="n">
         <v>240</v>
       </c>
     </row>
-    <row r="231" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B231" t="s">
+    <row r="231" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B231" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D231">
+      <c r="D231" s="0" t="n">
         <v>219</v>
       </c>
-      <c r="E231">
+      <c r="E231" s="0" t="n">
         <v>241</v>
       </c>
     </row>
-    <row r="232" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D232">
+    <row r="232" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D232" s="0" t="n">
         <v>220</v>
       </c>
-      <c r="E232">
+      <c r="E232" s="0" t="n">
         <v>242</v>
       </c>
     </row>
-    <row r="233" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D233">
+    <row r="233" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D233" s="0" t="n">
         <v>221</v>
       </c>
-      <c r="E233">
+      <c r="E233" s="0" t="n">
         <v>243</v>
       </c>
     </row>
-    <row r="234" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D234">
+    <row r="234" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D234" s="0" t="n">
         <v>222</v>
       </c>
-      <c r="E234">
+      <c r="E234" s="0" t="n">
         <v>244</v>
       </c>
     </row>
-    <row r="235" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D235">
+    <row r="235" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D235" s="0" t="n">
         <v>223</v>
       </c>
-      <c r="E235">
+      <c r="E235" s="0" t="n">
         <v>245</v>
       </c>
     </row>
-    <row r="236" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D236">
+    <row r="236" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D236" s="0" t="n">
         <v>224</v>
       </c>
-      <c r="E236">
+      <c r="E236" s="0" t="n">
         <v>246</v>
       </c>
     </row>
-    <row r="237" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D237">
+    <row r="237" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D237" s="0" t="n">
         <v>225</v>
       </c>
-      <c r="E237">
+      <c r="E237" s="0" t="n">
         <v>247</v>
       </c>
     </row>
-    <row r="238" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D238">
+    <row r="238" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D238" s="0" t="n">
         <v>226</v>
       </c>
-      <c r="E238">
+      <c r="E238" s="0" t="n">
         <v>248</v>
       </c>
     </row>
-    <row r="239" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D239">
+    <row r="239" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D239" s="0" t="n">
         <v>227</v>
       </c>
-      <c r="E239">
+      <c r="E239" s="0" t="n">
         <v>249</v>
       </c>
     </row>
-    <row r="240" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D240">
+    <row r="240" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D240" s="0" t="n">
         <v>228</v>
       </c>
-      <c r="E240">
+      <c r="E240" s="0" t="n">
         <v>250</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D241">
+    <row r="241" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D241" s="0" t="n">
         <v>229</v>
       </c>
-      <c r="E241">
+      <c r="E241" s="0" t="n">
         <v>251</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D242">
+    <row r="242" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D242" s="0" t="n">
         <v>230</v>
       </c>
-      <c r="E242">
+      <c r="E242" s="0" t="n">
         <v>252</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B243" t="s">
+    <row r="243" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B243" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D243">
+      <c r="D243" s="0" t="n">
         <v>231</v>
       </c>
-      <c r="E243">
+      <c r="E243" s="0" t="n">
         <v>253</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D244">
+    <row r="244" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D244" s="0" t="n">
         <v>232</v>
       </c>
-      <c r="E244">
+      <c r="E244" s="0" t="n">
         <v>254</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B245" t="s">
+    <row r="245" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B245" s="0" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A246" t="s">
+    <row r="246" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A246" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="D246">
+      <c r="D246" s="0" t="n">
         <v>233</v>
       </c>
-      <c r="E246">
+      <c r="E246" s="0" t="n">
         <v>261</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D247">
+    <row r="247" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D247" s="0" t="n">
         <v>234</v>
       </c>
-      <c r="E247">
+      <c r="E247" s="0" t="n">
         <v>262</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D248">
+    <row r="248" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D248" s="0" t="n">
         <v>235</v>
       </c>
-      <c r="E248">
+      <c r="E248" s="0" t="n">
         <v>262</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B249" t="s">
+    <row r="249" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B249" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="D249">
+      <c r="D249" s="0" t="n">
         <v>236</v>
       </c>
-      <c r="E249">
+      <c r="E249" s="0" t="n">
         <v>263</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D250">
+    <row r="250" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D250" s="0" t="n">
         <v>237</v>
       </c>
-      <c r="E250">
+      <c r="E250" s="0" t="n">
         <v>264</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B251" t="s">
+    <row r="251" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B251" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D251">
+      <c r="D251" s="0" t="n">
         <v>238</v>
       </c>
-      <c r="E251">
+      <c r="E251" s="0" t="n">
         <v>265</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B252" t="s">
+    <row r="252" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B252" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D252">
+      <c r="D252" s="0" t="n">
         <v>239</v>
       </c>
-      <c r="E252">
+      <c r="E252" s="0" t="n">
         <v>266</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D253">
+    <row r="253" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D253" s="0" t="n">
         <v>240</v>
       </c>
-      <c r="E253">
+      <c r="E253" s="0" t="n">
         <v>267</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B254" t="s">
+    <row r="254" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B254" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D254">
+      <c r="D254" s="0" t="n">
         <v>241</v>
       </c>
-      <c r="E254">
+      <c r="E254" s="0" t="n">
         <v>268</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B255" t="s">
+    <row r="255" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B255" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D255">
+      <c r="D255" s="0" t="n">
         <v>242</v>
       </c>
-      <c r="E255">
+      <c r="E255" s="0" t="n">
         <v>269</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B256" t="s">
+    <row r="256" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B256" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D256">
+      <c r="D256" s="0" t="n">
         <v>243</v>
       </c>
-      <c r="E256">
+      <c r="E256" s="0" t="n">
         <v>269</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D257">
+    <row r="257" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D257" s="0" t="n">
         <v>244</v>
       </c>
-      <c r="E257">
+      <c r="E257" s="0" t="n">
         <v>270</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B258" t="s">
+    <row r="258" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B258" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D258">
+      <c r="D258" s="0" t="n">
         <v>245</v>
       </c>
-      <c r="E258">
+      <c r="E258" s="0" t="n">
         <v>271</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B259" t="s">
+    <row r="259" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B259" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="D259">
+      <c r="D259" s="0" t="n">
         <v>246</v>
       </c>
-      <c r="E259">
+      <c r="E259" s="0" t="n">
         <v>272</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B260" t="s">
+    <row r="260" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B260" s="0" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B261" t="s">
+    <row r="261" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B261" s="0" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A262" t="s">
+    <row r="262" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A262" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D262">
+      <c r="D262" s="0" t="n">
         <v>247</v>
       </c>
-      <c r="E262">
+      <c r="E262" s="0" t="n">
         <v>276</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B263" t="s">
+    <row r="263" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B263" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="D263">
+      <c r="D263" s="0" t="n">
         <v>248</v>
       </c>
-      <c r="E263">
+      <c r="E263" s="0" t="n">
         <v>276</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D264">
+    <row r="264" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D264" s="0" t="n">
         <v>249</v>
       </c>
-      <c r="E264">
+      <c r="E264" s="0" t="n">
         <v>277</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D265">
+    <row r="265" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D265" s="0" t="n">
         <v>250</v>
       </c>
-      <c r="E265">
+      <c r="E265" s="0" t="n">
         <v>278</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D266">
+    <row r="266" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D266" s="0" t="n">
         <v>251</v>
       </c>
-      <c r="E266">
+      <c r="E266" s="0" t="n">
         <v>279</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D267">
+    <row r="267" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D267" s="0" t="n">
         <v>252</v>
       </c>
-      <c r="E267">
+      <c r="E267" s="0" t="n">
         <v>279</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D268">
+    <row r="268" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D268" s="0" t="n">
         <v>253</v>
       </c>
-      <c r="E268">
+      <c r="E268" s="0" t="n">
         <v>280</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D269">
+    <row r="269" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D269" s="0" t="n">
         <v>254</v>
       </c>
-      <c r="E269">
+      <c r="E269" s="0" t="n">
         <v>281</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D270">
+    <row r="270" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D270" s="0" t="n">
         <v>255</v>
       </c>
-      <c r="E270">
+      <c r="E270" s="0" t="n">
         <v>282</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B271" t="s">
+    <row r="271" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B271" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D271">
+      <c r="D271" s="0" t="n">
         <v>256</v>
       </c>
-      <c r="E271">
+      <c r="E271" s="0" t="n">
         <v>283</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D272">
+    <row r="272" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D272" s="0" t="n">
         <v>257</v>
       </c>
-      <c r="E272">
+      <c r="E272" s="0" t="n">
         <v>284</v>
       </c>
     </row>
-    <row r="273" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D273">
+    <row r="273" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D273" s="0" t="n">
         <v>258</v>
       </c>
-      <c r="E273">
+      <c r="E273" s="0" t="n">
         <v>284</v>
       </c>
     </row>
-    <row r="274" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D274">
+    <row r="274" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D274" s="0" t="n">
         <v>259</v>
       </c>
-      <c r="E274">
+      <c r="E274" s="0" t="n">
         <v>285</v>
       </c>
     </row>
-    <row r="275" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B275" t="s">
+    <row r="275" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B275" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D275">
+      <c r="D275" s="0" t="n">
         <v>260</v>
       </c>
-      <c r="E275">
+      <c r="E275" s="0" t="n">
         <v>286</v>
       </c>
     </row>
-    <row r="276" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D276">
+    <row r="276" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D276" s="0" t="n">
         <v>261</v>
       </c>
-      <c r="E276">
+      <c r="E276" s="0" t="n">
         <v>287</v>
       </c>
     </row>
-    <row r="277" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D277">
+    <row r="277" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D277" s="0" t="n">
         <v>262</v>
       </c>
-      <c r="E277">
+      <c r="E277" s="0" t="n">
         <v>288</v>
       </c>
     </row>
-    <row r="278" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D278">
+    <row r="278" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D278" s="0" t="n">
         <v>263</v>
       </c>
-      <c r="E278">
+      <c r="E278" s="0" t="n">
         <v>289</v>
       </c>
     </row>
-    <row r="279" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D279">
+    <row r="279" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D279" s="0" t="n">
         <v>264</v>
       </c>
-      <c r="E279">
+      <c r="E279" s="0" t="n">
         <v>289</v>
       </c>
     </row>
-    <row r="280" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D280">
+    <row r="280" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D280" s="0" t="n">
         <v>265</v>
       </c>
-      <c r="E280">
+      <c r="E280" s="0" t="n">
         <v>290</v>
       </c>
     </row>
-    <row r="281" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D281">
+    <row r="281" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D281" s="0" t="n">
         <v>266</v>
       </c>
-      <c r="E281">
+      <c r="E281" s="0" t="n">
         <v>291</v>
       </c>
     </row>
-    <row r="282" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D282">
+    <row r="282" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D282" s="0" t="n">
         <v>267</v>
       </c>
-      <c r="E282">
+      <c r="E282" s="0" t="n">
         <v>292</v>
       </c>
     </row>
-    <row r="283" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D283">
+    <row r="283" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D283" s="0" t="n">
         <v>268</v>
       </c>
-      <c r="E283">
+      <c r="E283" s="0" t="n">
         <v>293</v>
       </c>
     </row>
-    <row r="284" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B284" t="s">
+    <row r="284" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B284" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D284">
+      <c r="D284" s="0" t="n">
         <v>269</v>
       </c>
-      <c r="E284">
+      <c r="E284" s="0" t="n">
         <v>294</v>
       </c>
     </row>
-    <row r="285" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D285">
+    <row r="285" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D285" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="E285">
+      <c r="E285" s="0" t="n">
         <v>295</v>
       </c>
     </row>
-    <row r="286" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D286">
+    <row r="286" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D286" s="0" t="n">
         <v>271</v>
       </c>
-      <c r="E286">
+      <c r="E286" s="0" t="n">
         <v>296</v>
       </c>
     </row>
-    <row r="287" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D287">
+    <row r="287" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D287" s="0" t="n">
         <v>272</v>
       </c>
-      <c r="E287">
+      <c r="E287" s="0" t="n">
         <v>297</v>
       </c>
     </row>
-    <row r="288" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D288">
+    <row r="288" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D288" s="0" t="n">
         <v>273</v>
       </c>
-      <c r="E288">
+      <c r="E288" s="0" t="n">
         <v>298</v>
       </c>
     </row>
-    <row r="289" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D289">
+    <row r="289" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D289" s="0" t="n">
         <v>274</v>
       </c>
-      <c r="E289">
+      <c r="E289" s="0" t="n">
         <v>299</v>
       </c>
     </row>
-    <row r="290" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D290">
+    <row r="290" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D290" s="0" t="n">
         <v>275</v>
       </c>
-      <c r="E290">
+      <c r="E290" s="0" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="291" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D291">
+    <row r="291" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D291" s="0" t="n">
         <v>276</v>
       </c>
-      <c r="E291">
+      <c r="E291" s="0" t="n">
         <v>301</v>
       </c>
     </row>
-    <row r="292" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D292">
+    <row r="292" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D292" s="0" t="n">
         <v>277</v>
       </c>
-      <c r="E292">
+      <c r="E292" s="0" t="n">
         <v>301</v>
       </c>
     </row>
-    <row r="293" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D293">
+    <row r="293" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D293" s="0" t="n">
         <v>278</v>
       </c>
-      <c r="E293">
+      <c r="E293" s="0" t="n">
         <v>302</v>
       </c>
     </row>
-    <row r="294" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D294">
+    <row r="294" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D294" s="0" t="n">
         <v>279</v>
       </c>
-      <c r="E294">
+      <c r="E294" s="0" t="n">
         <v>303</v>
       </c>
     </row>
-    <row r="295" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D295">
+    <row r="295" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D295" s="0" t="n">
         <v>280</v>
       </c>
-      <c r="E295">
+      <c r="E295" s="0" t="n">
         <v>304</v>
       </c>
     </row>
-    <row r="296" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B296" t="s">
+    <row r="296" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B296" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D296">
+      <c r="D296" s="0" t="n">
         <v>281</v>
       </c>
-      <c r="E296">
+      <c r="E296" s="0" t="n">
         <v>305</v>
       </c>
     </row>
-    <row r="297" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D297">
+    <row r="297" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D297" s="0" t="n">
         <v>282</v>
       </c>
-      <c r="E297">
+      <c r="E297" s="0" t="n">
         <v>306</v>
       </c>
     </row>
-    <row r="298" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D298">
+    <row r="298" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D298" s="0" t="n">
         <v>283</v>
       </c>
-      <c r="E298">
+      <c r="E298" s="0" t="n">
         <v>307</v>
       </c>
     </row>
-    <row r="299" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D299">
+    <row r="299" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D299" s="0" t="n">
         <v>284</v>
       </c>
-      <c r="E299">
+      <c r="E299" s="0" t="n">
         <v>308</v>
       </c>
     </row>
-    <row r="300" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D300">
+    <row r="300" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D300" s="0" t="n">
         <v>285</v>
       </c>
-      <c r="E300">
+      <c r="E300" s="0" t="n">
         <v>308</v>
       </c>
     </row>
-    <row r="301" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D301">
+    <row r="301" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D301" s="0" t="n">
         <v>286</v>
       </c>
-      <c r="E301">
+      <c r="E301" s="0" t="n">
         <v>309</v>
       </c>
     </row>
-    <row r="302" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D302">
+    <row r="302" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D302" s="0" t="n">
         <v>287</v>
       </c>
-      <c r="E302">
+      <c r="E302" s="0" t="n">
         <v>310</v>
       </c>
     </row>
-    <row r="303" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D303">
+    <row r="303" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D303" s="0" t="n">
         <v>288</v>
       </c>
-      <c r="E303">
+      <c r="E303" s="0" t="n">
         <v>311</v>
       </c>
     </row>
-    <row r="304" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D304">
+    <row r="304" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D304" s="0" t="n">
         <v>289</v>
       </c>
-      <c r="E304">
+      <c r="E304" s="0" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="305" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B305" t="s">
+    <row r="305" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B305" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="D305">
+      <c r="D305" s="0" t="n">
         <v>290</v>
       </c>
-      <c r="E305">
+      <c r="E305" s="0" t="n">
         <v>313</v>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D306">
+    <row r="306" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D306" s="0" t="n">
         <v>291</v>
       </c>
-      <c r="E306">
+      <c r="E306" s="0" t="n">
         <v>314</v>
       </c>
     </row>
-    <row r="307" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B307" t="s">
+    <row r="307" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B307" s="0" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="308" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A308" t="s">
+    <row r="308" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A308" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B308" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="D308">
+      <c r="D308" s="0" t="n">
         <v>292</v>
       </c>
-      <c r="E308">
+      <c r="E308" s="0" t="n">
         <v>319</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D309">
+    <row r="309" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D309" s="0" t="n">
         <v>293</v>
       </c>
-      <c r="E309">
+      <c r="E309" s="0" t="n">
         <v>320</v>
       </c>
     </row>
-    <row r="310" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D310">
+    <row r="310" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D310" s="0" t="n">
         <v>294</v>
       </c>
-      <c r="E310">
+      <c r="E310" s="0" t="n">
         <v>321</v>
       </c>
     </row>
-    <row r="311" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D311">
+    <row r="311" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D311" s="0" t="n">
         <v>295</v>
       </c>
-      <c r="E311">
+      <c r="E311" s="0" t="n">
         <v>322</v>
       </c>
     </row>
-    <row r="312" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B312" t="s">
+    <row r="312" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B312" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D312">
+      <c r="D312" s="0" t="n">
         <v>296</v>
       </c>
-      <c r="E312">
+      <c r="E312" s="0" t="n">
         <v>323</v>
       </c>
     </row>
-    <row r="313" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D313">
+    <row r="313" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D313" s="0" t="n">
         <v>297</v>
       </c>
-      <c r="E313">
+      <c r="E313" s="0" t="n">
         <v>324</v>
       </c>
     </row>
-    <row r="314" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D314">
+    <row r="314" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D314" s="0" t="n">
         <v>298</v>
       </c>
-      <c r="E314">
+      <c r="E314" s="0" t="n">
         <v>325</v>
       </c>
     </row>
-    <row r="315" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D315">
+    <row r="315" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D315" s="0" t="n">
         <v>299</v>
       </c>
-      <c r="E315">
+      <c r="E315" s="0" t="n">
         <v>326</v>
       </c>
     </row>
-    <row r="316" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D316">
+    <row r="316" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D316" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="E316">
+      <c r="E316" s="0" t="n">
         <v>327</v>
       </c>
     </row>
-    <row r="317" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D317">
+    <row r="317" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D317" s="0" t="n">
         <v>301</v>
       </c>
-      <c r="E317">
+      <c r="E317" s="0" t="n">
         <v>327</v>
       </c>
     </row>
-    <row r="318" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D318">
+    <row r="318" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D318" s="0" t="n">
         <v>302</v>
       </c>
-      <c r="E318">
+      <c r="E318" s="0" t="n">
         <v>328</v>
       </c>
     </row>
-    <row r="319" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D319">
+    <row r="319" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D319" s="0" t="n">
         <v>303</v>
       </c>
-      <c r="E319">
+      <c r="E319" s="0" t="n">
         <v>329</v>
       </c>
     </row>
-    <row r="320" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D320">
+    <row r="320" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D320" s="0" t="n">
         <v>304</v>
       </c>
-      <c r="E320">
+      <c r="E320" s="0" t="n">
         <v>330</v>
       </c>
     </row>
-    <row r="321" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D321">
+    <row r="321" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D321" s="0" t="n">
         <v>305</v>
       </c>
-      <c r="E321">
+      <c r="E321" s="0" t="n">
         <v>331</v>
       </c>
     </row>
-    <row r="322" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B322" t="s">
+    <row r="322" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B322" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D322">
+      <c r="D322" s="0" t="n">
         <v>306</v>
       </c>
-      <c r="E322">
+      <c r="E322" s="0" t="n">
         <v>332</v>
       </c>
     </row>
-    <row r="323" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D323">
+    <row r="323" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D323" s="0" t="n">
         <v>307</v>
       </c>
-      <c r="E323">
+      <c r="E323" s="0" t="n">
         <v>333</v>
       </c>
     </row>
-    <row r="324" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D324">
+    <row r="324" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D324" s="0" t="n">
         <v>308</v>
       </c>
-      <c r="E324">
+      <c r="E324" s="0" t="n">
         <v>334</v>
       </c>
     </row>
-    <row r="325" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D325">
+    <row r="325" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D325" s="0" t="n">
         <v>309</v>
       </c>
-      <c r="E325">
+      <c r="E325" s="0" t="n">
         <v>335</v>
       </c>
     </row>
-    <row r="326" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D326">
+    <row r="326" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D326" s="0" t="n">
         <v>310</v>
       </c>
-      <c r="E326">
+      <c r="E326" s="0" t="n">
         <v>335</v>
       </c>
     </row>
-    <row r="327" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D327">
+    <row r="327" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D327" s="0" t="n">
         <v>311</v>
       </c>
-      <c r="E327">
+      <c r="E327" s="0" t="n">
         <v>336</v>
       </c>
     </row>
-    <row r="328" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D328">
+    <row r="328" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D328" s="0" t="n">
         <v>312</v>
       </c>
-      <c r="E328">
+      <c r="E328" s="0" t="n">
         <v>337</v>
       </c>
     </row>
-    <row r="329" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D329">
+    <row r="329" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D329" s="0" t="n">
         <v>313</v>
       </c>
-      <c r="E329">
+      <c r="E329" s="0" t="n">
         <v>338</v>
       </c>
     </row>
-    <row r="330" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D330">
+    <row r="330" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D330" s="0" t="n">
         <v>314</v>
       </c>
-      <c r="E330">
+      <c r="E330" s="0" t="n">
         <v>339</v>
       </c>
     </row>
-    <row r="331" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D331">
+    <row r="331" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D331" s="0" t="n">
         <v>315</v>
       </c>
-      <c r="E331">
+      <c r="E331" s="0" t="n">
         <v>339</v>
       </c>
     </row>
-    <row r="332" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D332">
+    <row r="332" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D332" s="0" t="n">
         <v>316</v>
       </c>
-      <c r="E332">
+      <c r="E332" s="0" t="n">
         <v>340</v>
       </c>
     </row>
-    <row r="333" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D333">
+    <row r="333" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D333" s="0" t="n">
         <v>317</v>
       </c>
-      <c r="E333">
+      <c r="E333" s="0" t="n">
         <v>341</v>
       </c>
     </row>
-    <row r="334" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D334">
+    <row r="334" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D334" s="0" t="n">
         <v>318</v>
       </c>
-      <c r="E334">
+      <c r="E334" s="0" t="n">
         <v>342</v>
       </c>
     </row>
-    <row r="335" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D335">
+    <row r="335" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D335" s="0" t="n">
         <v>319</v>
       </c>
-      <c r="E335">
+      <c r="E335" s="0" t="n">
         <v>343</v>
       </c>
     </row>
-    <row r="336" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B336" t="s">
+    <row r="336" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B336" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D336">
+      <c r="D336" s="0" t="n">
         <v>320</v>
       </c>
-      <c r="E336">
+      <c r="E336" s="0" t="n">
         <v>344</v>
       </c>
     </row>
-    <row r="337" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D337">
+    <row r="337" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D337" s="0" t="n">
         <v>321</v>
       </c>
-      <c r="E337">
+      <c r="E337" s="0" t="n">
         <v>345</v>
       </c>
     </row>
-    <row r="338" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D338">
+    <row r="338" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D338" s="0" t="n">
         <v>322</v>
       </c>
-      <c r="E338">
+      <c r="E338" s="0" t="n">
         <v>346</v>
       </c>
     </row>
-    <row r="339" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D339">
+    <row r="339" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D339" s="0" t="n">
         <v>323</v>
       </c>
-      <c r="E339">
+      <c r="E339" s="0" t="n">
         <v>347</v>
       </c>
     </row>
-    <row r="340" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D340">
+    <row r="340" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D340" s="0" t="n">
         <v>324</v>
       </c>
-      <c r="E340">
+      <c r="E340" s="0" t="n">
         <v>348</v>
       </c>
     </row>
-    <row r="341" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D341">
+    <row r="341" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D341" s="0" t="n">
         <v>325</v>
       </c>
-      <c r="E341">
+      <c r="E341" s="0" t="n">
         <v>349</v>
       </c>
     </row>
-    <row r="342" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D342">
+    <row r="342" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D342" s="0" t="n">
         <v>326</v>
       </c>
-      <c r="E342">
+      <c r="E342" s="0" t="n">
         <v>350</v>
       </c>
     </row>
-    <row r="343" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D343">
+    <row r="343" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D343" s="0" t="n">
         <v>327</v>
       </c>
-      <c r="E343">
+      <c r="E343" s="0" t="n">
         <v>351</v>
       </c>
     </row>
-    <row r="344" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D344">
+    <row r="344" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D344" s="0" t="n">
         <v>328</v>
       </c>
-      <c r="E344">
+      <c r="E344" s="0" t="n">
         <v>352</v>
       </c>
     </row>
-    <row r="345" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D345">
+    <row r="345" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D345" s="0" t="n">
         <v>329</v>
       </c>
-      <c r="E345">
+      <c r="E345" s="0" t="n">
         <v>353</v>
       </c>
     </row>
-    <row r="346" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D346">
+    <row r="346" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D346" s="0" t="n">
         <v>330</v>
       </c>
-      <c r="E346">
+      <c r="E346" s="0" t="n">
         <v>354</v>
       </c>
     </row>
-    <row r="347" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B347" t="s">
+    <row r="347" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B347" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="D347">
+      <c r="D347" s="0" t="n">
         <v>331</v>
       </c>
-      <c r="E347">
+      <c r="E347" s="0" t="n">
         <v>355</v>
       </c>
     </row>
-    <row r="348" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D348">
+    <row r="348" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D348" s="0" t="n">
         <v>332</v>
       </c>
-      <c r="E348">
+      <c r="E348" s="0" t="n">
         <v>356</v>
       </c>
     </row>
-    <row r="349" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B349" t="s">
+    <row r="349" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B349" s="0" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="350" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A350" t="s">
+    <row r="350" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A350" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D350">
+      <c r="D350" s="0" t="n">
         <v>333</v>
       </c>
-      <c r="E350">
+      <c r="E350" s="0" t="n">
         <v>361</v>
       </c>
     </row>
-    <row r="351" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B351" t="s">
+    <row r="351" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B351" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="D351">
+      <c r="D351" s="0" t="n">
         <v>334</v>
       </c>
-      <c r="E351">
+      <c r="E351" s="0" t="n">
         <v>362</v>
       </c>
     </row>
-    <row r="352" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D352">
+    <row r="352" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D352" s="0" t="n">
         <v>335</v>
       </c>
-      <c r="E352">
+      <c r="E352" s="0" t="n">
         <v>363</v>
       </c>
     </row>
-    <row r="353" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D353">
+    <row r="353" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D353" s="0" t="n">
         <v>336</v>
       </c>
-      <c r="E353">
+      <c r="E353" s="0" t="n">
         <v>364</v>
       </c>
     </row>
-    <row r="354" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D354">
+    <row r="354" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D354" s="0" t="n">
         <v>337</v>
       </c>
-      <c r="E354">
+      <c r="E354" s="0" t="n">
         <v>365</v>
       </c>
     </row>
-    <row r="355" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D355">
+    <row r="355" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D355" s="0" t="n">
         <v>338</v>
       </c>
-      <c r="E355">
+      <c r="E355" s="0" t="n">
         <v>367</v>
       </c>
     </row>
-    <row r="356" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D356">
+    <row r="356" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D356" s="0" t="n">
         <v>339</v>
       </c>
-      <c r="E356">
+      <c r="E356" s="0" t="n">
         <v>368</v>
       </c>
     </row>
-    <row r="357" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D357">
+    <row r="357" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D357" s="0" t="n">
         <v>340</v>
       </c>
-      <c r="E357">
+      <c r="E357" s="0" t="n">
         <v>369</v>
       </c>
     </row>
-    <row r="358" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D358">
+    <row r="358" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D358" s="0" t="n">
         <v>341</v>
       </c>
-      <c r="E358">
+      <c r="E358" s="0" t="n">
         <v>370</v>
       </c>
     </row>
-    <row r="359" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B359" t="s">
+    <row r="359" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B359" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D359">
+      <c r="D359" s="0" t="n">
         <v>342</v>
       </c>
-      <c r="E359">
+      <c r="E359" s="0" t="n">
         <v>371</v>
       </c>
     </row>
-    <row r="360" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D360">
+    <row r="360" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D360" s="0" t="n">
         <v>343</v>
       </c>
-      <c r="E360">
+      <c r="E360" s="0" t="n">
         <v>372</v>
       </c>
     </row>
-    <row r="361" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D361">
+    <row r="361" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D361" s="0" t="n">
         <v>344</v>
       </c>
-      <c r="E361">
+      <c r="E361" s="0" t="n">
         <v>373</v>
       </c>
     </row>
-    <row r="362" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D362">
+    <row r="362" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D362" s="0" t="n">
         <v>345</v>
       </c>
-      <c r="E362">
+      <c r="E362" s="0" t="n">
         <v>374</v>
       </c>
     </row>
-    <row r="363" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D363">
+    <row r="363" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D363" s="0" t="n">
         <v>346</v>
       </c>
-      <c r="E363">
+      <c r="E363" s="0" t="n">
         <v>375</v>
       </c>
     </row>
-    <row r="364" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D364">
+    <row r="364" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D364" s="0" t="n">
         <v>347</v>
       </c>
-      <c r="E364">
+      <c r="E364" s="0" t="n">
         <v>376</v>
       </c>
     </row>
-    <row r="365" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D365">
+    <row r="365" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D365" s="0" t="n">
         <v>348</v>
       </c>
-      <c r="E365">
+      <c r="E365" s="0" t="n">
         <v>376</v>
       </c>
     </row>
-    <row r="366" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D366">
+    <row r="366" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D366" s="0" t="n">
         <v>349</v>
       </c>
-      <c r="E366">
+      <c r="E366" s="0" t="n">
         <v>377</v>
       </c>
     </row>
-    <row r="367" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D367">
+    <row r="367" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D367" s="0" t="n">
         <v>350</v>
       </c>
-      <c r="E367">
+      <c r="E367" s="0" t="n">
         <v>378</v>
       </c>
     </row>
-    <row r="368" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D368">
+    <row r="368" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D368" s="0" t="n">
         <v>351</v>
       </c>
-      <c r="E368">
+      <c r="E368" s="0" t="n">
         <v>379</v>
       </c>
     </row>
-    <row r="369" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D369">
+    <row r="369" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D369" s="0" t="n">
         <v>352</v>
       </c>
-      <c r="E369">
+      <c r="E369" s="0" t="n">
         <v>380</v>
       </c>
     </row>
-    <row r="370" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D370">
+    <row r="370" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D370" s="0" t="n">
         <v>353</v>
       </c>
-      <c r="E370">
+      <c r="E370" s="0" t="n">
         <v>381</v>
       </c>
     </row>
-    <row r="371" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D371">
+    <row r="371" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D371" s="0" t="n">
         <v>354</v>
       </c>
-      <c r="E371">
+      <c r="E371" s="0" t="n">
         <v>382</v>
       </c>
     </row>
-    <row r="372" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D372">
+    <row r="372" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D372" s="0" t="n">
         <v>355</v>
       </c>
-      <c r="E372">
+      <c r="E372" s="0" t="n">
         <v>383</v>
       </c>
     </row>
-    <row r="373" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B373" t="s">
+    <row r="373" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B373" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D373">
+      <c r="D373" s="0" t="n">
         <v>356</v>
       </c>
-      <c r="E373">
+      <c r="E373" s="0" t="n">
         <v>384</v>
       </c>
     </row>
-    <row r="374" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D374">
+    <row r="374" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D374" s="0" t="n">
         <v>357</v>
       </c>
-      <c r="E374">
+      <c r="E374" s="0" t="n">
         <v>385</v>
       </c>
     </row>
-    <row r="375" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D375">
+    <row r="375" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D375" s="0" t="n">
         <v>358</v>
       </c>
-      <c r="E375">
+      <c r="E375" s="0" t="n">
         <v>386</v>
       </c>
     </row>
-    <row r="376" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D376">
+    <row r="376" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D376" s="0" t="n">
         <v>359</v>
       </c>
-      <c r="E376">
+      <c r="E376" s="0" t="n">
         <v>387</v>
       </c>
     </row>
-    <row r="377" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D377">
+    <row r="377" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D377" s="0" t="n">
         <v>360</v>
       </c>
-      <c r="E377">
+      <c r="E377" s="0" t="n">
         <v>387</v>
       </c>
     </row>
-    <row r="378" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D378">
+    <row r="378" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D378" s="0" t="n">
         <v>361</v>
       </c>
-      <c r="E378">
+      <c r="E378" s="0" t="n">
         <v>388</v>
       </c>
     </row>
-    <row r="379" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D379">
+    <row r="379" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D379" s="0" t="n">
         <v>362</v>
       </c>
-      <c r="E379">
+      <c r="E379" s="0" t="n">
         <v>389</v>
       </c>
     </row>
-    <row r="380" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D380">
+    <row r="380" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D380" s="0" t="n">
         <v>363</v>
       </c>
-      <c r="E380">
+      <c r="E380" s="0" t="n">
         <v>390</v>
       </c>
     </row>
-    <row r="381" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D381">
+    <row r="381" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D381" s="0" t="n">
         <v>364</v>
       </c>
-      <c r="E381">
+      <c r="E381" s="0" t="n">
         <v>391</v>
       </c>
     </row>
-    <row r="382" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D382">
+    <row r="382" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D382" s="0" t="n">
         <v>365</v>
       </c>
-      <c r="E382">
+      <c r="E382" s="0" t="n">
         <v>392</v>
       </c>
     </row>
-    <row r="383" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D383">
+    <row r="383" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D383" s="0" t="n">
         <v>366</v>
       </c>
-      <c r="E383">
+      <c r="E383" s="0" t="n">
         <v>393</v>
       </c>
     </row>
-    <row r="384" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B384" t="s">
+    <row r="384" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B384" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="D384">
+      <c r="D384" s="0" t="n">
         <v>367</v>
       </c>
-      <c r="E384">
+      <c r="E384" s="0" t="n">
         <v>394</v>
       </c>
     </row>
-    <row r="385" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D385">
+    <row r="385" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D385" s="0" t="n">
         <v>368</v>
       </c>
-      <c r="E385">
+      <c r="E385" s="0" t="n">
         <v>395</v>
       </c>
     </row>
-    <row r="386" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B386" t="s">
+    <row r="386" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B386" s="0" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="387" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A387" t="s">
+    <row r="387" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A387" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="B387" t="s">
+      <c r="B387" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="D387">
+      <c r="D387" s="0" t="n">
         <v>369</v>
       </c>
-      <c r="E387">
+      <c r="E387" s="0" t="n">
         <v>403</v>
       </c>
     </row>
-    <row r="388" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B388" t="s">
+    <row r="388" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B388" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D388">
+      <c r="D388" s="0" t="n">
         <v>370</v>
       </c>
-      <c r="E388">
+      <c r="E388" s="0" t="n">
         <v>404</v>
       </c>
     </row>
-    <row r="389" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D389">
+    <row r="389" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D389" s="0" t="n">
         <v>371</v>
       </c>
-      <c r="E389">
+      <c r="E389" s="0" t="n">
         <v>405</v>
       </c>
     </row>
-    <row r="390" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D390">
+    <row r="390" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D390" s="0" t="n">
         <v>372</v>
       </c>
-      <c r="E390">
+      <c r="E390" s="0" t="n">
         <v>405</v>
       </c>
     </row>
-    <row r="391" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D391">
+    <row r="391" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D391" s="0" t="n">
         <v>373</v>
       </c>
-      <c r="E391">
+      <c r="E391" s="0" t="n">
         <v>406</v>
       </c>
     </row>
-    <row r="392" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B392" t="s">
+    <row r="392" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B392" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D392">
+      <c r="D392" s="0" t="n">
         <v>374</v>
       </c>
-      <c r="E392">
+      <c r="E392" s="0" t="n">
         <v>407</v>
       </c>
     </row>
-    <row r="393" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D393">
+    <row r="393" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D393" s="0" t="n">
         <v>375</v>
       </c>
-      <c r="E393">
+      <c r="E393" s="0" t="n">
         <v>408</v>
       </c>
     </row>
-    <row r="394" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B394" t="s">
+    <row r="394" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B394" s="0" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="395" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B395" t="s">
+    <row r="395" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B395" s="0" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="396" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A396" t="s">
+    <row r="396" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A396" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B396" t="s">
+      <c r="B396" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="D396">
+      <c r="D396" s="0" t="n">
         <v>376</v>
       </c>
-      <c r="E396">
+      <c r="E396" s="0" t="n">
         <v>411</v>
       </c>
     </row>
-    <row r="397" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D397">
+    <row r="397" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D397" s="0" t="n">
         <v>377</v>
       </c>
-      <c r="E397">
+      <c r="E397" s="0" t="n">
         <v>412</v>
       </c>
     </row>
-    <row r="398" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D398">
+    <row r="398" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D398" s="0" t="n">
         <v>378</v>
       </c>
-      <c r="E398">
+      <c r="E398" s="0" t="n">
         <v>413</v>
       </c>
     </row>
-    <row r="399" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B399" t="s">
+    <row r="399" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B399" s="0" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="400" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B400" t="s">
+    <row r="400" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B400" s="0" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="401" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A401" t="s">
+    <row r="401" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A401" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B401" t="s">
+      <c r="B401" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="D401">
+      <c r="D401" s="0" t="n">
         <v>379</v>
       </c>
-      <c r="E401">
+      <c r="E401" s="0" t="n">
         <v>417</v>
       </c>
     </row>
-    <row r="402" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D402">
+    <row r="402" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D402" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="E402">
+      <c r="E402" s="0" t="n">
         <v>418</v>
       </c>
     </row>
-    <row r="403" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D403">
+    <row r="403" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D403" s="0" t="n">
         <v>381</v>
       </c>
-      <c r="E403">
+      <c r="E403" s="0" t="n">
         <v>419</v>
       </c>
     </row>
-    <row r="404" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D404">
+    <row r="404" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D404" s="0" t="n">
         <v>382</v>
       </c>
-      <c r="E404">
+      <c r="E404" s="0" t="n">
         <v>420</v>
       </c>
     </row>
-    <row r="405" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D405">
+    <row r="405" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D405" s="0" t="n">
         <v>383</v>
       </c>
-      <c r="E405">
+      <c r="E405" s="0" t="n">
         <v>421</v>
       </c>
     </row>
-    <row r="406" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D406">
+    <row r="406" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D406" s="0" t="n">
         <v>384</v>
       </c>
-      <c r="E406">
+      <c r="E406" s="0" t="n">
         <v>422</v>
       </c>
     </row>
-    <row r="407" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D407">
+    <row r="407" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D407" s="0" t="n">
         <v>385</v>
       </c>
-      <c r="E407">
+      <c r="E407" s="0" t="n">
         <v>422</v>
       </c>
     </row>
-    <row r="408" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D408">
+    <row r="408" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D408" s="0" t="n">
         <v>386</v>
       </c>
-      <c r="E408">
+      <c r="E408" s="0" t="n">
         <v>423</v>
       </c>
     </row>
-    <row r="409" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D409">
+    <row r="409" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D409" s="0" t="n">
         <v>387</v>
       </c>
-      <c r="E409">
+      <c r="E409" s="0" t="n">
         <v>424</v>
       </c>
     </row>
-    <row r="410" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D410">
+    <row r="410" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D410" s="0" t="n">
         <v>388</v>
       </c>
-      <c r="E410">
+      <c r="E410" s="0" t="n">
         <v>425</v>
       </c>
     </row>
-    <row r="411" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D411">
+    <row r="411" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D411" s="0" t="n">
         <v>389</v>
       </c>
-      <c r="E411">
+      <c r="E411" s="0" t="n">
         <v>426</v>
       </c>
     </row>
-    <row r="412" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D412">
+    <row r="412" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D412" s="0" t="n">
         <v>390</v>
       </c>
-      <c r="E412">
+      <c r="E412" s="0" t="n">
         <v>427</v>
       </c>
     </row>
-    <row r="413" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B413" t="s">
+    <row r="413" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B413" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D413">
+      <c r="D413" s="0" t="n">
         <v>391</v>
       </c>
-      <c r="E413">
+      <c r="E413" s="0" t="n">
         <v>428</v>
       </c>
     </row>
-    <row r="414" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D414">
+    <row r="414" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D414" s="0" t="n">
         <v>392</v>
       </c>
-      <c r="E414">
+      <c r="E414" s="0" t="n">
         <v>429</v>
       </c>
     </row>
-    <row r="415" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D415">
+    <row r="415" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D415" s="0" t="n">
         <v>393</v>
       </c>
-      <c r="E415">
+      <c r="E415" s="0" t="n">
         <v>430</v>
       </c>
     </row>
-    <row r="416" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D416">
+    <row r="416" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D416" s="0" t="n">
         <v>394</v>
       </c>
-      <c r="E416">
+      <c r="E416" s="0" t="n">
         <v>430</v>
       </c>
     </row>
-    <row r="417" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D417">
+    <row r="417" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D417" s="0" t="n">
         <v>395</v>
       </c>
-      <c r="E417">
+      <c r="E417" s="0" t="n">
         <v>431</v>
       </c>
     </row>
-    <row r="418" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D418">
+    <row r="418" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D418" s="0" t="n">
         <v>396</v>
       </c>
-      <c r="E418">
+      <c r="E418" s="0" t="n">
         <v>432</v>
       </c>
     </row>
-    <row r="419" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D419">
+    <row r="419" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D419" s="0" t="n">
         <v>397</v>
       </c>
-      <c r="E419">
+      <c r="E419" s="0" t="n">
         <v>433</v>
       </c>
     </row>
-    <row r="420" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B420" t="s">
+    <row r="420" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B420" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="D420">
+      <c r="D420" s="0" t="n">
         <v>398</v>
       </c>
-      <c r="E420">
+      <c r="E420" s="0" t="n">
         <v>434</v>
       </c>
     </row>
-    <row r="421" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D421">
+    <row r="421" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D421" s="0" t="n">
         <v>399</v>
       </c>
-      <c r="E421">
+      <c r="E421" s="0" t="n">
         <v>435</v>
       </c>
     </row>
-    <row r="422" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B422" t="s">
+    <row r="422" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B422" s="0" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="423" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A423" t="s">
+    <row r="423" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A423" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="B423" t="s">
+      <c r="B423" s="0" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="424" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B426" t="s">
+      <c r="D423" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E423" s="0" t="n">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D424" s="0" t="n">
+        <v>401</v>
+      </c>
+      <c r="E424" s="0" t="n">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D425" s="0" t="n">
+        <v>402</v>
+      </c>
+      <c r="E425" s="0" t="n">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B426" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="427" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B429" t="s">
+      <c r="D426" s="0" t="n">
+        <v>403</v>
+      </c>
+      <c r="E426" s="0" t="n">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D427" s="0" t="n">
+        <v>404</v>
+      </c>
+      <c r="E427" s="0" t="n">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D428" s="0" t="n">
+        <v>405</v>
+      </c>
+      <c r="E428" s="0" t="n">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B429" s="0" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="430" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" spans="1:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" spans="2:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" spans="2:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" spans="2:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" spans="2:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" spans="2:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" spans="2:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" spans="2:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" spans="2:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" spans="2:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" spans="2:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B442" t="s">
+      <c r="D429" s="0" t="n">
+        <v>406</v>
+      </c>
+      <c r="E429" s="0" t="n">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D430" s="0" t="n">
+        <v>407</v>
+      </c>
+      <c r="E430" s="0" t="n">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D431" s="0" t="n">
+        <v>408</v>
+      </c>
+      <c r="E431" s="0" t="n">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D432" s="0" t="n">
+        <v>409</v>
+      </c>
+      <c r="E432" s="0" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D433" s="0" t="n">
+        <v>410</v>
+      </c>
+      <c r="E433" s="0" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D434" s="0" t="n">
+        <v>411</v>
+      </c>
+      <c r="E434" s="0" t="n">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D435" s="0" t="n">
+        <v>412</v>
+      </c>
+      <c r="E435" s="0" t="n">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D436" s="0" t="n">
+        <v>413</v>
+      </c>
+      <c r="E436" s="0" t="n">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D437" s="0" t="n">
+        <v>414</v>
+      </c>
+      <c r="E437" s="0" t="n">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D438" s="0" t="n">
+        <v>415</v>
+      </c>
+      <c r="E438" s="0" t="n">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D439" s="0" t="n">
+        <v>416</v>
+      </c>
+      <c r="E439" s="0" t="n">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D440" s="0" t="n">
+        <v>417</v>
+      </c>
+      <c r="E440" s="0" t="n">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D441" s="0" t="n">
+        <v>418</v>
+      </c>
+      <c r="E441" s="0" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B442" s="0" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="443" spans="2:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" spans="2:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" spans="2:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" spans="2:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" spans="2:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" spans="2:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B448" t="s">
+      <c r="D442" s="0" t="n">
+        <v>419</v>
+      </c>
+      <c r="E442" s="0" t="n">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D443" s="0" t="n">
+        <v>420</v>
+      </c>
+      <c r="E443" s="0" t="n">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D444" s="0" t="n">
+        <v>421</v>
+      </c>
+      <c r="E444" s="0" t="n">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D445" s="0" t="n">
+        <v>422</v>
+      </c>
+      <c r="E445" s="0" t="n">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="446" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D446" s="0" t="n">
+        <v>423</v>
+      </c>
+      <c r="E446" s="0" t="n">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="447" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D447" s="0" t="n">
+        <v>424</v>
+      </c>
+      <c r="E447" s="0" t="n">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="448" customFormat="false" ht="9.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B448" s="0" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="449" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B449" t="s">
+      <c r="D448" s="0" t="n">
+        <v>425</v>
+      </c>
+      <c r="E448" s="0" t="n">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B449" s="0" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
